--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_bgp_test_ni_bgp_export_policy_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_bgp_test_ni_bgp_export_policy_logs.xlsx
@@ -512,15 +512,25 @@
                         &lt;/routing-policy&gt;
                     &lt;/filter&gt;
 -------------------
-</t>
+                    &lt;filter&gt;
+                        &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+                        &lt;network-instance&gt;
+                        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+                        &lt;/network-instance&gt;
+                        &lt;/network-instances&gt;
+                    &lt;/filter&gt;
+                    </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:39654852-6e0f-4314-b0f5-111094e8b880"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:abd14810-0136-41fa-8840-fd89089764a8"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 -------------------
+&lt;rpc-reply message-id="urn:uuid:75be47e3-af73-4500-ba0e-69408353ee87"&gt;
+  &lt;data/&gt;
+&lt;/rpc-reply&gt;
 </t>
         </is>
       </c>
@@ -538,25 +548,104 @@
             &lt;config&gt;
               &lt;name&gt;BGP_Policy_Export_Export&lt;/name&gt;
             &lt;/config&gt;
+            &lt;statements&gt;
+              &lt;statement&gt;
+               &lt;name&gt;1&lt;/name&gt;
+               &lt;config&gt;
+                &lt;name&gt;1&lt;/name&gt;
+               &lt;/config&gt;
+              &lt;/statement&gt;
+            &lt;/statements&gt;
           &lt;/policy-definition&gt;
         &lt;/policy-definitions&gt;
       &lt;/routing-policy&gt;
     &lt;/config&gt;
   &lt;/edit-config&gt; 
 -------------------
+  &lt;edit-config&gt;
+    &lt;target&gt;
+      &lt;candidate/&gt;
+    &lt;/target&gt;
+    &lt;config&gt;
+      &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+        &lt;network-instance&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;config&gt;
+            &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+            &lt;type xmlns:oc-ni-types="http://openconfig.net/yang/network-instance-types"&gt;oc-ni-types:L3VRF&lt;/type&gt;
+          &lt;/config&gt;
+          &lt;protocols&gt;
+            &lt;protocol&gt;
+              &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+              &lt;config&gt;
+                &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/identifier&gt;
+                &lt;name&gt;default&lt;/name&gt;
+              &lt;/config&gt;
+              &lt;bgp&gt;
+                &lt;neighbors&gt;
+                  &lt;neighbor&gt;
+                    &lt;neighbor-address&gt;192.168.1.2&lt;/neighbor-address&gt;
+                    &lt;config&gt;
+                      &lt;neighbor-address&gt;192.168.1.2&lt;/neighbor-address&gt;
+                    &lt;/config&gt;
+                    &lt;apply-policy&gt;
+                      &lt;config&gt;
+                        &lt;export-policy&gt;BGP_Policy_Export_Export&lt;/export-policy&gt;
+                      &lt;/config&gt;
+                    &lt;/apply-policy&gt;
+                  &lt;/neighbor&gt;
+                &lt;/neighbors&gt;
+              &lt;/bgp&gt;
+            &lt;/protocol&gt;
+          &lt;/protocols&gt;
+        &lt;/network-instance&gt;
+      &lt;/network-instances&gt;
+    &lt;/config&gt;
+  &lt;/edit-config&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:c2844af1-28fe-4444-805a-2b9145ae921c"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:abc693ce-779a-4563-a64a-9dd28ae4c5b7" nc-ext:flow-id="237"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+-------------------
 </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
--------------------
-</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:a624d623-b513-43dd-a26c-32c91d7bcdcc"&gt;
+  &lt;data&gt;
+    &lt;routing-policy&gt;
+      &lt;policy-definitions&gt;
+        &lt;policy-definition&gt;
+          &lt;name&gt;BGP_Policy_Export_Export&lt;/name&gt;
+          &lt;config&gt;
+            &lt;name&gt;BGP_Policy_Export_Export&lt;/name&gt;
+          &lt;/config&gt;
+          &lt;statements&gt;
+            &lt;statement&gt;
+              &lt;name&gt;1&lt;/name&gt;
+              &lt;config&gt;
+                &lt;name&gt;1&lt;/name&gt;
+              &lt;/config&gt;
+              &lt;actions&gt;
+                &lt;config&gt;
+                  &lt;policy-result&gt;ACCEPT_ROUTE&lt;/policy-result&gt;
+                &lt;/config&gt;
+              &lt;/actions&gt;
+            &lt;/statement&gt;
+          &lt;/statements&gt;
+        &lt;/policy-definition&gt;
+      &lt;/policy-definitions&gt;
+    &lt;/routing-policy&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
 -------------------
 </t>
         </is>
